--- a/노현지 책방 테이블명세.xlsx
+++ b/노현지 책방 테이블명세.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Project_DEPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Project_DEPT\Spring\Project_DEPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,6 +247,30 @@
   </si>
   <si>
     <t>bw_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(3000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,6 +694,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -695,39 +752,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1099,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1731,23 +1755,23 @@
       <c r="C1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="26" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="37"/>
       <c r="J1" s="11">
         <v>44124</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="14" t="s">
@@ -1756,42 +1780,42 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="27" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="25" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1800,7 +1824,7 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1823,19 +1847,19 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="29">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="21" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1860,7 +1884,9 @@
       <c r="E6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1881,7 +1907,9 @@
       <c r="E7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1902,7 +1930,9 @@
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1923,7 +1953,9 @@
       <c r="E9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1944,7 +1976,9 @@
       <c r="E10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1965,7 +1999,9 @@
       <c r="E11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1986,7 +2022,9 @@
       <c r="E12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -2007,7 +2045,9 @@
       <c r="E13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2028,7 +2068,9 @@
       <c r="E14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2049,7 +2091,9 @@
       <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2070,7 +2114,9 @@
       <c r="E16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2091,7 +2137,9 @@
       <c r="E17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2130,19 +2178,19 @@
       <c r="L19" s="18"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="36">
+      <c r="B20" s="26">
         <v>16</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="39"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10">
